--- a/氣象性能評估工具V2/data/obs/2016-06-17_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-17_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="219">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-17-00</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>27.4</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>26.9</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-17-01</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>26.5</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>26.0</t>
   </si>
   <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>2016-06-17-04</t>
   </si>
   <si>
-    <t>21.2</t>
-  </si>
-  <si>
     <t>23.6</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>27.6</t>
   </si>
   <si>
+    <t>21.4</t>
+  </si>
+  <si>
     <t>2016-06-17-05</t>
   </si>
   <si>
-    <t>21.4</t>
-  </si>
-  <si>
     <t>23.4</t>
   </si>
   <si>
@@ -295,12 +295,12 @@
     <t>7.4</t>
   </si>
   <si>
+    <t>23.2</t>
+  </si>
+  <si>
     <t>2016-06-17-06</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
     <t>23.1</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>29.9</t>
   </si>
   <si>
+    <t>24.8</t>
+  </si>
+  <si>
     <t>2016-06-17-07</t>
   </si>
   <si>
-    <t>24.8</t>
-  </si>
-  <si>
     <t>30.3</t>
   </si>
   <si>
@@ -433,12 +433,12 @@
     <t>32.2</t>
   </si>
   <si>
+    <t>27.1</t>
+  </si>
+  <si>
     <t>2016-06-17-10</t>
   </si>
   <si>
-    <t>27.1</t>
-  </si>
-  <si>
     <t>35.5</t>
   </si>
   <si>
@@ -463,12 +463,12 @@
     <t>32.4</t>
   </si>
   <si>
+    <t>23.8</t>
+  </si>
+  <si>
     <t>2016-06-17-11</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>36.6</t>
   </si>
   <si>
@@ -511,12 +511,12 @@
     <t>36.7</t>
   </si>
   <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>2016-06-17-13</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>31.5</t>
   </si>
   <si>
@@ -535,12 +535,12 @@
     <t>31.9</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-17-14</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>18.0</t>
   </si>
   <si>
@@ -550,12 +550,12 @@
     <t>34.6</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-17-15</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>25.5</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>11.7</t>
   </si>
   <si>
+    <t>21.5</t>
+  </si>
+  <si>
     <t>2016-06-17-16</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>22.9</t>
   </si>
   <si>
@@ -592,12 +592,12 @@
     <t>29.2</t>
   </si>
   <si>
+    <t>20.4</t>
+  </si>
+  <si>
     <t>2016-06-17-18</t>
   </si>
   <si>
-    <t>20.4</t>
-  </si>
-  <si>
     <t>24.4</t>
   </si>
   <si>
@@ -646,10 +646,10 @@
     <t>14.3</t>
   </si>
   <si>
+    <t>20.6</t>
+  </si>
+  <si>
     <t>2016-06-17-22</t>
-  </si>
-  <si>
-    <t>20.6</t>
   </si>
   <si>
     <t>22.6</t>
@@ -677,6 +677,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -706,8 +709,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,11 +1090,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1163,11 +1167,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -1240,7 +1244,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B5" t="s">
@@ -1394,11 +1398,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -1471,11 +1475,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1548,11 +1552,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -1625,11 +1629,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -1702,7 +1706,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B10" t="s">
@@ -1779,7 +1783,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B11" t="s">
@@ -1856,11 +1860,11 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
         <v>139</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>108</v>
@@ -1933,11 +1937,11 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
         <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>150</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>
@@ -2010,7 +2014,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B14" t="s">
@@ -2087,11 +2091,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
         <v>165</v>
-      </c>
-      <c r="B15" t="s">
-        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>124</v>
@@ -2164,11 +2168,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s">
         <v>173</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
       </c>
       <c r="C16" t="s">
         <v>126</v>
@@ -2241,11 +2245,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
         <v>178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>179</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2284,7 +2288,7 @@
         <v>117</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P17" t="s">
         <v>181</v>
@@ -2318,11 +2322,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
         <v>183</v>
-      </c>
-      <c r="B18" t="s">
-        <v>184</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -2395,7 +2399,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B19" t="s">
@@ -2472,11 +2476,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
         <v>192</v>
-      </c>
-      <c r="B20" t="s">
-        <v>193</v>
       </c>
       <c r="C20" t="s">
         <v>194</v>
@@ -2503,7 +2507,7 @@
         <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s">
         <v>191</v>
@@ -2549,7 +2553,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B21" t="s">
@@ -2559,7 +2563,7 @@
         <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>202</v>
@@ -2626,7 +2630,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B22" t="s">
@@ -2669,7 +2673,7 @@
         <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s">
         <v>205</v>
@@ -2703,7 +2707,7 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B23" t="s">
@@ -2722,7 +2726,7 @@
         <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
         <v>76</v>
@@ -2743,10 +2747,10 @@
         <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P23" t="s">
         <v>209</v>
@@ -2780,11 +2784,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
         <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
       </c>
       <c r="C24" t="s">
         <v>202</v>
@@ -2857,7 +2861,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B25" t="s">
@@ -2900,7 +2904,7 @@
         <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P25" t="s">
         <v>217</v>
